--- a/tests/xlsx/sample.xlsx
+++ b/tests/xlsx/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke.okada/GoogleDrive/projects/xlsxconverter/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusuke.okada/tmp/xlsxconverter/tests/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="400">
   <si>
     <t>連番</t>
   </si>
@@ -1881,7 +1881,7 @@
   <dimension ref="A5:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2681,8 +2681,8 @@
       <c r="R15" t="s">
         <v>88</v>
       </c>
-      <c r="S15" t="s">
-        <v>19</v>
+      <c r="S15">
+        <v>123</v>
       </c>
       <c r="T15" t="s">
         <v>70</v>
